--- a/JCUtest/src/mem/swap/xmx设置公式.xlsx
+++ b/JCUtest/src/mem/swap/xmx设置公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8100"/>
+    <workbookView windowWidth="20385" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>xmx计算-不造成swap使用</t>
   </si>
@@ -25,16 +25,67 @@
     <t>系统物理内存 m为单位</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>watermark</t>
   </si>
   <si>
+    <t>cat /proc/zoneinfo</t>
+  </si>
+  <si>
     <t>系统自己运行需要内存</t>
   </si>
   <si>
+    <t>这个指标还是粗了点</t>
+  </si>
+  <si>
     <t>xss 1m 的线程个数</t>
   </si>
   <si>
+    <t xml:space="preserve"> ps -eLf | grep 6493  -c </t>
+  </si>
+  <si>
     <t>其他jvm xmx</t>
+  </si>
+  <si>
+    <t>ps -ef |grep java |grep Xmx</t>
+  </si>
+  <si>
+    <t>如果是java8,考虑metaspace空间</t>
+  </si>
+  <si>
+    <t>默认21 m,检查-XX:MaxMetaspaceSize参数；jstat -gc 26964 检查MC ：CurrentMetaspaceCapcity(KB)</t>
+  </si>
+  <si>
+    <t>java nio使用到的对外内存</t>
+  </si>
+  <si>
+    <t>jcmd 下看下本地内存</t>
+  </si>
+  <si>
+    <r>
+      <t>如果开启了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF4B4B4B"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CompressedClassSpaceSize</t>
+    </r>
+  </si>
+  <si>
+    <t>ps -ef|grep java |grep CompressedClassSpaceSize</t>
+  </si>
+  <si>
+    <t>jvm 本身</t>
+  </si>
+  <si>
+    <t>jcmd 看下jvm本身malloc的内存</t>
   </si>
 </sst>
 </file>
@@ -47,7 +98,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +261,13 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF4B4B4B"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -689,33 +747,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1045,224 +1106,262 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="3" width="30" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30" style="2" customWidth="1"/>
-    <col min="7" max="16373" width="10.6666666666667" style="4" customWidth="1"/>
-    <col min="16374" max="16384" width="10.6666666666667" style="4"/>
+    <col min="1" max="1" width="31.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30" style="4" customWidth="1"/>
+    <col min="5" max="6" width="30" style="3" customWidth="1"/>
+    <col min="7" max="16373" width="10.6666666666667" style="5" customWidth="1"/>
+    <col min="16374" max="16384" width="10.6666666666667" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="65" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" customFormat="1" ht="65" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="65" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <f>B3-SUM(B4:B100)</f>
-        <v>5672.75</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+        <v>5280.04296875</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>7823</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="8">
+        <f>(8010796/1024)</f>
+        <v>7823.04296875</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
         <v>114</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
         <v>800</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
         <f>(54+836+0.25*41)</f>
         <v>900.25</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
         <f>(80+256)</f>
         <v>336</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <f>(19200/1024)+(107520/1024)</f>
+        <v>123.75</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <f>88*3</f>
+        <v>264</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/JCUtest/src/mem/swap/xmx设置公式.xlsx
+++ b/JCUtest/src/mem/swap/xmx设置公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8820"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>xss 1m 的线程个数</t>
   </si>
   <si>
-    <t xml:space="preserve"> ps -eLf | grep 6493  -c </t>
+    <t xml:space="preserve"> ps -eLf | grep $pid  -c </t>
   </si>
   <si>
     <t>其他jvm xmx</t>
@@ -55,16 +55,22 @@
     <t>如果是java8,考虑metaspace空间</t>
   </si>
   <si>
-    <t>默认21 m,检查-XX:MaxMetaspaceSize参数；jstat -gc 26964 检查MC ：CurrentMetaspaceCapcity(KB)</t>
-  </si>
-  <si>
-    <t>java nio使用到的对外内存</t>
+    <t>默认21 m,检查-XX:MaxMetaspaceSize参数；jstat -gc $pid 检查MC ：CurrentMetaspaceCapcity(KB)</t>
+  </si>
+  <si>
+    <t>java nio使用到的堆外内存</t>
   </si>
   <si>
     <t>jcmd 下看下本地内存</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果开启了</t>
     </r>
     <r>
@@ -93,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -126,30 +132,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,36 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -203,61 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,54 +502,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +531,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -597,6 +570,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -605,145 +611,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,8 +1112,8 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>

--- a/JCUtest/src/mem/swap/xmx设置公式.xlsx
+++ b/JCUtest/src/mem/swap/xmx设置公式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="22935" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,61 +37,43 @@
     <t>系统自己运行需要内存</t>
   </si>
   <si>
-    <t>这个指标还是粗了点</t>
-  </si>
-  <si>
-    <t>xss 1m 的线程个数</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ps -eLf | grep $pid  -c </t>
+    <t>文献估算值</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>class metadata</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>track of the object graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Native Memory Tracking</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Symbol</t>
   </si>
   <si>
     <t>其他jvm xmx</t>
   </si>
   <si>
-    <t>ps -ef |grep java |grep Xmx</t>
-  </si>
-  <si>
-    <t>如果是java8,考虑metaspace空间</t>
-  </si>
-  <si>
-    <t>默认21 m,检查-XX:MaxMetaspaceSize参数；jstat -gc $pid 检查MC ：CurrentMetaspaceCapcity(KB)</t>
-  </si>
-  <si>
-    <t>java nio使用到的堆外内存</t>
-  </si>
-  <si>
-    <t>jcmd 下看下本地内存</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如果开启了</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color rgb="FF4B4B4B"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CompressedClassSpaceSize</t>
-    </r>
-  </si>
-  <si>
-    <t>ps -ef|grep java |grep CompressedClassSpaceSize</t>
-  </si>
-  <si>
-    <t>jvm 本身</t>
-  </si>
-  <si>
-    <t>jcmd 看下jvm本身malloc的内存</t>
+    <t>其他jvm non-heap</t>
   </si>
 </sst>
 </file>
@@ -100,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -125,6 +107,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -132,98 +142,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,6 +194,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -245,11 +234,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,17 +251,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color rgb="FF4B4B4B"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -297,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,17 +511,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,31 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +564,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,137 +604,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +764,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1110,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="5"/>
@@ -1142,8 +1126,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <f>B3-SUM(B4:B100)</f>
-        <v>5280.04296875</v>
+        <f>B3-SUM(B4:B99)</f>
+        <v>5106</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1155,8 +1139,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <f>(8010796/1024)</f>
-        <v>7823.04296875</v>
+        <f>7824</f>
+        <v>7824</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
@@ -1198,116 +1182,123 @@
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <f>(54+836+0.25*41)</f>
-        <v>900.25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
+        <f>834</f>
+        <v>834</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+    <row r="7" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
       <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>114</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="8">
-        <f>(80+256)</f>
-        <v>336</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="39" customHeight="1" spans="1:6">
+    <row r="8" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8">
-        <f>(19200/1024)+(107520/1024)</f>
-        <v>123.75</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
+    <row r="9" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="43" customHeight="1" spans="1:6">
+    <row r="10" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8">
-        <f>88*3</f>
-        <v>264</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
+        <v>33</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>18</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <f>(80+256)</f>
+        <v>336</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <f>86+86</f>
+        <v>172</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
@@ -1360,14 +1351,6 @@
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
